--- a/cahier-des-charges.xlsx
+++ b/cahier-des-charges.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutan\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myriam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{50F0B6EE-7610-4681-BC64-1A027A2B5BB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3FC62C3D-FF66-4A80-96CA-2EF1EA268C65}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6ABC266F-3FA2-4BDC-B24D-2048E03E2DC1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,9 +49,6 @@
     <t>2. Carte glissante</t>
   </si>
   <si>
-    <t>3. Affichage des imformations</t>
-  </si>
-  <si>
     <t>6. Comparaison</t>
   </si>
   <si>
@@ -56,15 +58,6 @@
     <t>Carte glissante</t>
   </si>
   <si>
-    <t>Donner les imformations générales de la station en cliquant sur l'icône sur la carte</t>
-  </si>
-  <si>
-    <t>4.  Présentation de graphique</t>
-  </si>
-  <si>
-    <t>5. Filtrage par une plage temporelle</t>
-  </si>
-  <si>
     <t>Plage temporelle</t>
   </si>
   <si>
@@ -77,15 +70,6 @@
     <t xml:space="preserve">Choisir un arrondissement </t>
   </si>
   <si>
-    <t>On peut zoomer et glisser la carte</t>
-  </si>
-  <si>
-    <t>Donner la graphique de disponibilité de la station que l'on a choisie, avec le temps comme l'abscisse et le nombre de vélos disponibles comme l'ordonnée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Présantation de la disponibilité des vélos dans toutes les stations qu'on a choisies à comparer </t>
-  </si>
-  <si>
     <t>Rubrique des informations</t>
   </si>
   <si>
@@ -104,62 +88,90 @@
     <t>On évite de regénérer les graphiques à chaque fois, sauf en mode comparaison ou au niveau d'un arrondissement</t>
   </si>
   <si>
-    <t>Graphe lisible, apparition dans moins de 5 secondes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1. Interface intéractive</t>
   </si>
   <si>
     <t>Existence</t>
   </si>
   <si>
-    <t>On peut cliquer toutes les stations pour obtenir ses coordonnées pour réaliser d'autres fonctionnements</t>
-  </si>
-  <si>
     <t>Information pertinante et robustes vis-à-vis des cellules manquantes dans la base de données</t>
   </si>
   <si>
-    <t>On définie cette plage en choisissant une date, un instant de début et l'autre de fin dans la rubrique de choix. L'information d'erreur s'affiche au cas d'une plage temporelle invalide</t>
-  </si>
-  <si>
     <t>Choix consécutifs des stations sur la carte</t>
   </si>
   <si>
-    <t>Superposition en différents couleurs des courbes de disponiblité associées aux stations choisies pour la fin de comparaison.</t>
-  </si>
-  <si>
     <t>On peut choisir un arrodissement dans la rubrique de choix</t>
   </si>
   <si>
-    <t>Calculer et présenter des courbes moyennes de la disponibilité des vélos dans la commune qu'on a choisi</t>
-  </si>
-  <si>
-    <t>Affichage de la courbe de valeur moyenne temporelle lorsque une station arbitraire est cliquée</t>
-  </si>
-  <si>
     <t>6. Base de donnée "Cache"</t>
   </si>
   <si>
     <t>Fonctionnements supplimentaires</t>
   </si>
   <si>
-    <t>Fonctionnements de base</t>
-  </si>
-  <si>
     <t>7. Agrégation dans un arrondissement</t>
+  </si>
+  <si>
+    <t>Fonctionnement de base</t>
+  </si>
+  <si>
+    <t>3. Affichage des informations</t>
+  </si>
+  <si>
+    <t>4.  Présentation des graphiques</t>
+  </si>
+  <si>
+    <t>5. Filtrage par plage temporelle</t>
+  </si>
+  <si>
+    <t>On peut zoomer/dézoomer et glisser la carte</t>
+  </si>
+  <si>
+    <t>On peut cliquer sur toutes les stations pour obtenir ses coordonnées afin de réaliser d'autre fonctionnement</t>
+  </si>
+  <si>
+    <t>Donner les informations générales de la station voulue en cliquant sur son icône sur la carte</t>
+  </si>
+  <si>
+    <t>Donner le graphique de disponibilité de la station que l'on a choisi, avec le temps comme abscisse et le nombre de vélos disponibles comme ordonnée</t>
+  </si>
+  <si>
+    <t>Graphe lisible, apparition en moins de 5 secondes</t>
+  </si>
+  <si>
+    <t>Calculer et présenter des courbes moyennes de la disponibilité des vélos dans l'arrondissement que l'on a choisi</t>
+  </si>
+  <si>
+    <t>Affichage de la courbe de valeur moyenne temporelle lorsque une station arbitraire est sélectionnée sur la carte</t>
+  </si>
+  <si>
+    <t>On définie cette plage en choisissant une date, un instant de début et un instant de fin dans la rubrique de choix. Si une plage temporelle invalide a été rentrée, un message informant de l'erreur s'affiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présentation de la disponibilité des vélos dans toutes les stations qu'on choisit de comparer </t>
+  </si>
+  <si>
+    <t>Superposition des courbes de disponiblité (avec des couleurs différentes) associées aux stations choisies pour la comparaison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,28 +318,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -336,38 +345,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -684,231 +699,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2139D527-4E8A-49FA-A49C-694B2B97F0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.9296875" customWidth="1"/>
-    <col min="2" max="2" width="16.46484375" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="9"/>
-    <col min="4" max="4" width="44.19921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="44.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="55.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.8" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="63">
-      <c r="A9" s="18"/>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="E13" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="78.75">
-      <c r="A10" s="18"/>
-      <c r="B10" s="2" t="s">
+      <c r="C14" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="47.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="2" t="s">
+      <c r="E14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="47.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
